--- a/Dataset/PSV1/dataset_gps(processed).xlsx
+++ b/Dataset/PSV1/dataset_gps(processed).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTER 4\IoT Analytics\20th Feb submission\PVS1\preprocessed files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mishr\Desktop\Group11_IOT_Analytics_21_23\Dataset\PSV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB4DF41-99BD-4E26-842F-04749C335EF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF275399-E429-4371-9104-97BED479BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,6 +92,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -424,10 +425,28 @@
   <dimension ref="A1:Q1468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
